--- a/biology/Zoologie/Amblyodipsas_polylepis/Amblyodipsas_polylepis.xlsx
+++ b/biology/Zoologie/Amblyodipsas_polylepis/Amblyodipsas_polylepis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amblyodipsas polylepis est une espèce de serpents de la famille des Lamprophiidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amblyodipsas polylepis est une espèce de serpents de la famille des Lamprophiidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Afrique du Sud ;
 en Angola ;
 au Botswana ;
@@ -553,9 +567,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (12 février 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (12 février 2014) :
 Amblyodipsas polylepis polylepis (Bocage, 1873)
 Amblyodipsas polylepis hildebrandtii (Peters, 1877)</t>
         </is>
@@ -585,9 +601,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent venimeux[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent venimeux.
 </t>
         </is>
       </c>
@@ -616,7 +634,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bocage, 1873 : Melanges erpetologiques. II. Sur quelques reptiles et batraciens nouveaux, rares ou peu connus d‘Afrique occidentale. Jornal de Sciencias Mathematicas, Physicas e Naturaes Academia Real das Sciencias de Lisboa, vol. 4, p. 209-227 (texte intégral).
 Peters, 1877 : Übersicht der Amphibien aus Chinchoxo (Westafrika), welche von der Africanischen Gesellschaft dem Berliner zoologischen Museum übergeben sind. Monatsberichte der Königlichen Preussischen Akademie der Wissenschaften zu Berlin, vol. 1877, p. 611-620 (texte intégral).</t>
